--- a/input_ceps_skus.xlsx
+++ b/input_ceps_skus.xlsx
@@ -119,10 +119,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -147,11 +147,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">

--- a/input_ceps_skus.xlsx
+++ b/input_ceps_skus.xlsx
@@ -116,17 +116,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
         <v>88134360</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>22450200</v>
       </c>
     </row>
   </sheetData>
@@ -145,17 +150,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
         <v>2071060</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1823752</v>
       </c>
     </row>
   </sheetData>

--- a/input_ceps_skus.xlsx
+++ b/input_ceps_skus.xlsx
@@ -122,7 +122,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -156,7 +156,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -165,7 +165,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1823752</v>
+        <v>100358954</v>
       </c>
     </row>
   </sheetData>

--- a/input_ceps_skus.xlsx
+++ b/input_ceps_skus.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="CEPs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SKUs" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="SELLERs" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -18,6 +19,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">pelegrin</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -122,7 +131,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -156,7 +165,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -166,6 +175,40 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>100358954</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/input_ceps_skus.xlsx
+++ b/input_ceps_skus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CEPs" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,14 +19,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">pelegrin</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -125,22 +117,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
         <v>88134360</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>22450200</v>
       </c>
     </row>
   </sheetData>
@@ -165,7 +152,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -173,9 +160,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>100358954</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -195,11 +180,11 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -207,9 +192,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input_ceps_skus.xlsx
+++ b/input_ceps_skus.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="CEPs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="SKUs" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="SKUs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="CEPs" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="SELLERs" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -19,6 +19,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">pelegrin</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -117,17 +125,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
+        <v>2071060</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>100358954</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
         <v>88134360</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>22450200</v>
       </c>
     </row>
   </sheetData>
@@ -141,38 +188,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>2071060</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -181,10 +196,10 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -192,7 +207,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
